--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col4a1-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>34.9544822345212</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H2">
-        <v>34.9544822345212</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I2">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J2">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>3091.53348902542</v>
+        <v>21430.20022430025</v>
       </c>
       <c r="R2">
-        <v>3091.53348902542</v>
+        <v>192871.8020187022</v>
       </c>
       <c r="S2">
-        <v>0.02357428185726489</v>
+        <v>0.09087342707871918</v>
       </c>
       <c r="T2">
-        <v>0.02357428185726489</v>
+        <v>0.09087342707871918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>34.9544822345212</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H3">
-        <v>34.9544822345212</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I3">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J3">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>5691.899234473127</v>
+        <v>35304.41561810716</v>
       </c>
       <c r="R3">
-        <v>5691.899234473127</v>
+        <v>317739.7405629645</v>
       </c>
       <c r="S3">
-        <v>0.04340319693542109</v>
+        <v>0.1497061718812575</v>
       </c>
       <c r="T3">
-        <v>0.04340319693542109</v>
+        <v>0.1497061718812575</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>34.9544822345212</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H4">
-        <v>34.9544822345212</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I4">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J4">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>2160.904845704695</v>
+        <v>14163.69944452495</v>
       </c>
       <c r="R4">
-        <v>2160.904845704695</v>
+        <v>127473.2950007245</v>
       </c>
       <c r="S4">
-        <v>0.01647783537852956</v>
+        <v>0.06006028385947852</v>
       </c>
       <c r="T4">
-        <v>0.01647783537852956</v>
+        <v>0.06006028385947852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.9544822345212</v>
+        <v>216.5832213333333</v>
       </c>
       <c r="H5">
-        <v>34.9544822345212</v>
+        <v>649.7496640000001</v>
       </c>
       <c r="I5">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="J5">
-        <v>0.1208538415081575</v>
+        <v>0.4331411212367192</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>4904.446311553646</v>
+        <v>31247.06705283566</v>
       </c>
       <c r="R5">
-        <v>4904.446311553646</v>
+        <v>281223.603475521</v>
       </c>
       <c r="S5">
-        <v>0.037398527336942</v>
+        <v>0.132501238417264</v>
       </c>
       <c r="T5">
-        <v>0.037398527336942</v>
+        <v>0.132501238417264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>158.264630314358</v>
+        <v>161.954974</v>
       </c>
       <c r="H6">
-        <v>158.264630314358</v>
+        <v>485.864922</v>
       </c>
       <c r="I6">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J6">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>13997.64417800044</v>
+        <v>16024.91411280518</v>
       </c>
       <c r="R6">
-        <v>13997.64417800044</v>
+        <v>144224.2270152466</v>
       </c>
       <c r="S6">
-        <v>0.1067380995099329</v>
+        <v>0.06795264854415466</v>
       </c>
       <c r="T6">
-        <v>0.1067380995099329</v>
+        <v>0.06795264854415466</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>158.264630314358</v>
+        <v>161.954974</v>
       </c>
       <c r="H7">
-        <v>158.264630314358</v>
+        <v>485.864922</v>
       </c>
       <c r="I7">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J7">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>25771.41100493277</v>
+        <v>26399.67065923287</v>
       </c>
       <c r="R7">
-        <v>25771.41100493277</v>
+        <v>237597.0359330958</v>
       </c>
       <c r="S7">
-        <v>0.19651817101332</v>
+        <v>0.111946156426186</v>
       </c>
       <c r="T7">
-        <v>0.19651817101332</v>
+        <v>0.111946156426186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>158.264630314358</v>
+        <v>161.954974</v>
       </c>
       <c r="H8">
-        <v>158.264630314358</v>
+        <v>485.864922</v>
       </c>
       <c r="I8">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J8">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>9784.004359023311</v>
+        <v>10591.22475490123</v>
       </c>
       <c r="R8">
-        <v>9784.004359023311</v>
+        <v>95321.02279411105</v>
       </c>
       <c r="S8">
-        <v>0.0746072708806511</v>
+        <v>0.04491142781519528</v>
       </c>
       <c r="T8">
-        <v>0.0746072708806511</v>
+        <v>0.04491142781519528</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>158.264630314358</v>
+        <v>161.954974</v>
       </c>
       <c r="H9">
-        <v>158.264630314358</v>
+        <v>485.864922</v>
       </c>
       <c r="I9">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313607</v>
       </c>
       <c r="J9">
-        <v>0.5471941601088505</v>
+        <v>0.3238910133313606</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>22206.03289692203</v>
+        <v>23365.69703305728</v>
       </c>
       <c r="R9">
-        <v>22206.03289692203</v>
+        <v>210291.2732975156</v>
       </c>
       <c r="S9">
-        <v>0.1693306187049465</v>
+        <v>0.09908078054582473</v>
       </c>
       <c r="T9">
-        <v>0.1693306187049465</v>
+        <v>0.09908078054582473</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.445568277803339</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H10">
-        <v>0.445568277803339</v>
+        <v>1.38241</v>
       </c>
       <c r="I10">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J10">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>39.40808630018812</v>
+        <v>45.59498024161333</v>
       </c>
       <c r="R10">
-        <v>39.40808630018812</v>
+        <v>410.35482217452</v>
       </c>
       <c r="S10">
-        <v>0.0003005037264496588</v>
+        <v>0.0001933426691666472</v>
       </c>
       <c r="T10">
-        <v>0.0003005037264496588</v>
+        <v>0.0001933426691666472</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.445568277803339</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H11">
-        <v>0.445568277803339</v>
+        <v>1.38241</v>
       </c>
       <c r="I11">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J11">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>72.55520829399218</v>
+        <v>75.11381674931889</v>
       </c>
       <c r="R11">
-        <v>72.55520829399218</v>
+        <v>676.0243507438699</v>
       </c>
       <c r="S11">
-        <v>0.0005532648883173948</v>
+        <v>0.0003185154537769321</v>
       </c>
       <c r="T11">
-        <v>0.0005532648883173948</v>
+        <v>0.0003185154537769321</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.445568277803339</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H12">
-        <v>0.445568277803339</v>
+        <v>1.38241</v>
       </c>
       <c r="I12">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J12">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>27.54526999248855</v>
+        <v>30.13474393902223</v>
       </c>
       <c r="R12">
-        <v>27.54526999248855</v>
+        <v>271.2126954512</v>
       </c>
       <c r="S12">
-        <v>0.0002100446140863547</v>
+        <v>0.0001277845016479788</v>
       </c>
       <c r="T12">
-        <v>0.0002100446140863547</v>
+        <v>0.0001277845016479788</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.445568277803339</v>
+        <v>0.4608033333333333</v>
       </c>
       <c r="H13">
-        <v>0.445568277803339</v>
+        <v>1.38241</v>
       </c>
       <c r="I13">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="J13">
-        <v>0.001540535993793845</v>
+        <v>0.0009215527926904059</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>62.51746720080776</v>
+        <v>66.48138561332222</v>
       </c>
       <c r="R13">
-        <v>62.51746720080776</v>
+        <v>598.3324705199</v>
       </c>
       <c r="S13">
-        <v>0.0004767227649404372</v>
+        <v>0.0002819101680988477</v>
       </c>
       <c r="T13">
-        <v>0.0004767227649404372</v>
+        <v>0.0002819101680988478</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.5647040097259</v>
+        <v>121.0302313333333</v>
       </c>
       <c r="H14">
-        <v>95.5647040097259</v>
+        <v>363.090694</v>
       </c>
       <c r="I14">
-        <v>0.3304114623891982</v>
+        <v>0.2420463126392298</v>
       </c>
       <c r="J14">
-        <v>0.3304114623891982</v>
+        <v>0.2420463126392298</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>8452.177344028576</v>
+        <v>11975.54489539549</v>
       </c>
       <c r="R14">
-        <v>8452.177344028576</v>
+        <v>107779.9040585594</v>
       </c>
       <c r="S14">
-        <v>0.06445151305106236</v>
+        <v>0.0507815510069591</v>
       </c>
       <c r="T14">
-        <v>0.06445151305106236</v>
+        <v>0.0507815510069591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.5647040097259</v>
+        <v>121.0302313333333</v>
       </c>
       <c r="H15">
-        <v>95.5647040097259</v>
+        <v>363.090694</v>
       </c>
       <c r="I15">
-        <v>0.3304114623891982</v>
+        <v>0.2420463126392298</v>
       </c>
       <c r="J15">
-        <v>0.3304114623891982</v>
+        <v>0.2420463126392298</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>15561.51402690232</v>
+        <v>19728.68241151252</v>
       </c>
       <c r="R15">
-        <v>15561.51402690232</v>
+        <v>177558.1417036127</v>
       </c>
       <c r="S15">
-        <v>0.1186632844503404</v>
+        <v>0.08365824694670265</v>
       </c>
       <c r="T15">
-        <v>0.1186632844503404</v>
+        <v>0.08365824694670265</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.5647040097259</v>
+        <v>121.0302313333333</v>
       </c>
       <c r="H16">
-        <v>95.5647040097259</v>
+        <v>363.090694</v>
       </c>
       <c r="I16">
-        <v>0.3304114623891982</v>
+        <v>0.2420463126392298</v>
       </c>
       <c r="J16">
-        <v>0.3304114623891982</v>
+        <v>0.2420463126392298</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>5907.861274769652</v>
+        <v>7914.90591816601</v>
       </c>
       <c r="R16">
-        <v>5907.861274769652</v>
+        <v>71234.1532634941</v>
       </c>
       <c r="S16">
-        <v>0.0450500010300535</v>
+        <v>0.03356266475633769</v>
       </c>
       <c r="T16">
-        <v>0.0450500010300535</v>
+        <v>0.03356266475633769</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>95.5647040097259</v>
+        <v>121.0302313333333</v>
       </c>
       <c r="H17">
-        <v>95.5647040097259</v>
+        <v>363.090694</v>
       </c>
       <c r="I17">
-        <v>0.3304114623891982</v>
+        <v>0.2420463126392298</v>
       </c>
       <c r="J17">
-        <v>0.3304114623891982</v>
+        <v>0.2420463126392298</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>13408.63689384974</v>
+        <v>17461.36995567363</v>
       </c>
       <c r="R17">
-        <v>13408.63689384974</v>
+        <v>157152.3296010627</v>
       </c>
       <c r="S17">
-        <v>0.102246663857742</v>
+        <v>0.07404384992923033</v>
       </c>
       <c r="T17">
-        <v>0.102246663857742</v>
+        <v>0.07404384992923033</v>
       </c>
     </row>
   </sheetData>
